--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H2">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I2">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J2">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7750113333333332</v>
+        <v>1.070709333333333</v>
       </c>
       <c r="N2">
-        <v>2.325034</v>
+        <v>3.212128</v>
       </c>
       <c r="O2">
-        <v>0.09828779666416516</v>
+        <v>0.1056496288760636</v>
       </c>
       <c r="P2">
-        <v>0.09828779666416518</v>
+        <v>0.1056496288760636</v>
       </c>
       <c r="Q2">
-        <v>26.18957694009444</v>
+        <v>41.04082017539911</v>
       </c>
       <c r="R2">
-        <v>235.70619246085</v>
+        <v>369.367381578592</v>
       </c>
       <c r="S2">
-        <v>0.0578191971206003</v>
+        <v>0.05618314988308389</v>
       </c>
       <c r="T2">
-        <v>0.05781919712060031</v>
+        <v>0.05618314988308389</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H3">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I3">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J3">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.63366</v>
       </c>
       <c r="O3">
-        <v>0.1958819664103302</v>
+        <v>0.152405028485123</v>
       </c>
       <c r="P3">
-        <v>0.1958819664103302</v>
+        <v>0.152405028485123</v>
       </c>
       <c r="Q3">
-        <v>52.19433138794444</v>
+        <v>59.20349587997111</v>
       </c>
       <c r="R3">
-        <v>469.7489824915</v>
+        <v>532.83146291974</v>
       </c>
       <c r="S3">
-        <v>0.1152303583215733</v>
+        <v>0.08104708600879246</v>
       </c>
       <c r="T3">
-        <v>0.1152303583215733</v>
+        <v>0.08104708600879246</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H4">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I4">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J4">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.033537666666667</v>
+        <v>3.115442666666667</v>
       </c>
       <c r="N4">
-        <v>3.100613</v>
+        <v>9.346328</v>
       </c>
       <c r="O4">
-        <v>0.1310743929242614</v>
+        <v>0.3074086974597408</v>
       </c>
       <c r="P4">
-        <v>0.1310743929242614</v>
+        <v>0.3074086974597408</v>
       </c>
       <c r="Q4">
-        <v>34.92583021364722</v>
+        <v>119.4164637113769</v>
       </c>
       <c r="R4">
-        <v>314.3324719228251</v>
+        <v>1074.748173402392</v>
       </c>
       <c r="S4">
-        <v>0.07710637962356504</v>
+        <v>0.163476096494431</v>
       </c>
       <c r="T4">
-        <v>0.07710637962356505</v>
+        <v>0.163476096494431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H5">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I5">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J5">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.625210666666667</v>
+        <v>1.972894</v>
       </c>
       <c r="N5">
-        <v>7.875632</v>
+        <v>5.918682</v>
       </c>
       <c r="O5">
-        <v>0.3329321277098712</v>
+        <v>0.1946704977931882</v>
       </c>
       <c r="P5">
-        <v>0.3329321277098712</v>
+        <v>0.1946704977931882</v>
       </c>
       <c r="Q5">
-        <v>88.71245333008891</v>
+        <v>75.62200623305533</v>
       </c>
       <c r="R5">
-        <v>798.4120799708001</v>
+        <v>680.598056097498</v>
       </c>
       <c r="S5">
-        <v>0.1958520688546093</v>
+        <v>0.1035233334152035</v>
       </c>
       <c r="T5">
-        <v>0.1958520688546093</v>
+        <v>0.1035233334152035</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H6">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I6">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J6">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.906809666666667</v>
+        <v>2.430930666666667</v>
       </c>
       <c r="N6">
-        <v>5.720429</v>
+        <v>7.292792</v>
       </c>
       <c r="O6">
-        <v>0.241823716291372</v>
+        <v>0.2398661473858844</v>
       </c>
       <c r="P6">
-        <v>0.241823716291372</v>
+        <v>0.2398661473858844</v>
       </c>
       <c r="Q6">
-        <v>64.4358815509139</v>
+        <v>93.17877900525423</v>
       </c>
       <c r="R6">
-        <v>579.922933958225</v>
+        <v>838.609011047288</v>
       </c>
       <c r="S6">
-        <v>0.1422562474206392</v>
+        <v>0.1275578140105734</v>
       </c>
       <c r="T6">
-        <v>0.1422562474206393</v>
+        <v>0.1275578140105734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>44.830572</v>
       </c>
       <c r="I7">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J7">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7750113333333332</v>
+        <v>1.070709333333333</v>
       </c>
       <c r="N7">
-        <v>2.325034</v>
+        <v>3.212128</v>
       </c>
       <c r="O7">
-        <v>0.09828779666416516</v>
+        <v>0.1056496288760636</v>
       </c>
       <c r="P7">
-        <v>0.09828779666416518</v>
+        <v>0.1056496288760636</v>
       </c>
       <c r="Q7">
-        <v>11.58140045993867</v>
+        <v>16.00017061969067</v>
       </c>
       <c r="R7">
-        <v>104.232604139448</v>
+        <v>144.001535577216</v>
       </c>
       <c r="S7">
-        <v>0.02556846480023323</v>
+        <v>0.02190355797567231</v>
       </c>
       <c r="T7">
-        <v>0.02556846480023324</v>
+        <v>0.02190355797567231</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>44.830572</v>
       </c>
       <c r="I8">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J8">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.63366</v>
       </c>
       <c r="O8">
-        <v>0.1958819664103302</v>
+        <v>0.152405028485123</v>
       </c>
       <c r="P8">
-        <v>0.1958819664103302</v>
+        <v>0.152405028485123</v>
       </c>
       <c r="Q8">
         <v>23.08106980594667</v>
@@ -948,10 +948,10 @@
         <v>207.72962825352</v>
       </c>
       <c r="S8">
-        <v>0.05095649035938774</v>
+        <v>0.03159700997268906</v>
       </c>
       <c r="T8">
-        <v>0.05095649035938776</v>
+        <v>0.03159700997268906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>44.830572</v>
       </c>
       <c r="I9">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J9">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.033537666666667</v>
+        <v>3.115442666666667</v>
       </c>
       <c r="N9">
-        <v>3.100613</v>
+        <v>9.346328</v>
       </c>
       <c r="O9">
-        <v>0.1310743929242614</v>
+        <v>0.3074086974597408</v>
       </c>
       <c r="P9">
-        <v>0.1310743929242614</v>
+        <v>0.3074086974597408</v>
       </c>
       <c r="Q9">
-        <v>15.44469492673734</v>
+        <v>46.55569225995734</v>
       </c>
       <c r="R9">
-        <v>139.002254340636</v>
+        <v>419.001230339616</v>
       </c>
       <c r="S9">
-        <v>0.03409752904673462</v>
+        <v>0.06373277690292835</v>
       </c>
       <c r="T9">
-        <v>0.03409752904673462</v>
+        <v>0.06373277690292835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>44.830572</v>
       </c>
       <c r="I10">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J10">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.625210666666667</v>
+        <v>1.972894</v>
       </c>
       <c r="N10">
-        <v>7.875632</v>
+        <v>5.918682</v>
       </c>
       <c r="O10">
-        <v>0.3329321277098712</v>
+        <v>0.1946704977931882</v>
       </c>
       <c r="P10">
-        <v>0.3329321277098712</v>
+        <v>0.1946704977931882</v>
       </c>
       <c r="Q10">
-        <v>39.22989860238934</v>
+        <v>29.481988838456</v>
       </c>
       <c r="R10">
-        <v>353.069087421504</v>
+        <v>265.337899546104</v>
       </c>
       <c r="S10">
-        <v>0.08660854833589121</v>
+        <v>0.04035959785119651</v>
       </c>
       <c r="T10">
-        <v>0.08660854833589123</v>
+        <v>0.0403595978511965</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>44.830572</v>
       </c>
       <c r="I11">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J11">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.906809666666667</v>
+        <v>2.430930666666667</v>
       </c>
       <c r="N11">
-        <v>5.720429</v>
+        <v>7.292792</v>
       </c>
       <c r="O11">
-        <v>0.241823716291372</v>
+        <v>0.2398661473858844</v>
       </c>
       <c r="P11">
-        <v>0.241823716291372</v>
+        <v>0.2398661473858844</v>
       </c>
       <c r="Q11">
-        <v>28.49445601726534</v>
+        <v>36.32667075966934</v>
       </c>
       <c r="R11">
-        <v>256.450104155388</v>
+        <v>326.940036837024</v>
       </c>
       <c r="S11">
-        <v>0.06290771985645517</v>
+        <v>0.04972967838657713</v>
       </c>
       <c r="T11">
-        <v>0.0629077198564552</v>
+        <v>0.04972967838657712</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H12">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I12">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J12">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7750113333333332</v>
+        <v>1.070709333333333</v>
       </c>
       <c r="N12">
-        <v>2.325034</v>
+        <v>3.212128</v>
       </c>
       <c r="O12">
-        <v>0.09828779666416516</v>
+        <v>0.1056496288760636</v>
       </c>
       <c r="P12">
-        <v>0.09828779666416518</v>
+        <v>0.1056496288760636</v>
       </c>
       <c r="Q12">
-        <v>1.141733004399777</v>
+        <v>8.744551293827554</v>
       </c>
       <c r="R12">
-        <v>10.275597039598</v>
+        <v>78.70096164444799</v>
       </c>
       <c r="S12">
-        <v>0.002520624361038185</v>
+        <v>0.01197092148504196</v>
       </c>
       <c r="T12">
-        <v>0.002520624361038185</v>
+        <v>0.01197092148504196</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H13">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I13">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J13">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.63366</v>
       </c>
       <c r="O13">
-        <v>0.1958819664103302</v>
+        <v>0.152405028485123</v>
       </c>
       <c r="P13">
-        <v>0.1958819664103302</v>
+        <v>0.152405028485123</v>
       </c>
       <c r="Q13">
-        <v>2.275408683557777</v>
+        <v>12.61446540989555</v>
       </c>
       <c r="R13">
-        <v>20.47867815202</v>
+        <v>113.53018868906</v>
       </c>
       <c r="S13">
-        <v>0.005023460421124249</v>
+        <v>0.01726867050390879</v>
       </c>
       <c r="T13">
-        <v>0.00502346042112425</v>
+        <v>0.01726867050390879</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H14">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I14">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J14">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.033537666666667</v>
+        <v>3.115442666666667</v>
       </c>
       <c r="N14">
-        <v>3.100613</v>
+        <v>9.346328</v>
       </c>
       <c r="O14">
-        <v>0.1310743929242614</v>
+        <v>0.3074086974597408</v>
       </c>
       <c r="P14">
-        <v>0.1310743929242614</v>
+        <v>0.3074086974597408</v>
       </c>
       <c r="Q14">
-        <v>1.522589431367889</v>
+        <v>25.44401860851644</v>
       </c>
       <c r="R14">
-        <v>13.703304882311</v>
+        <v>228.996167476648</v>
       </c>
       <c r="S14">
-        <v>0.003361447902246458</v>
+        <v>0.03483178710856143</v>
       </c>
       <c r="T14">
-        <v>0.003361447902246459</v>
+        <v>0.03483178710856144</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H15">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I15">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J15">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.625210666666667</v>
+        <v>1.972894</v>
       </c>
       <c r="N15">
-        <v>7.875632</v>
+        <v>5.918682</v>
       </c>
       <c r="O15">
-        <v>0.3329321277098712</v>
+        <v>0.1946704977931882</v>
       </c>
       <c r="P15">
-        <v>0.3329321277098712</v>
+        <v>0.1946704977931882</v>
       </c>
       <c r="Q15">
-        <v>3.867413975411555</v>
+        <v>16.11275090558467</v>
       </c>
       <c r="R15">
-        <v>34.806725778704</v>
+        <v>145.014758150262</v>
       </c>
       <c r="S15">
-        <v>0.008538158959297749</v>
+        <v>0.02205767563339042</v>
       </c>
       <c r="T15">
-        <v>0.008538158959297753</v>
+        <v>0.02205767563339042</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H16">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I16">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J16">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.906809666666667</v>
+        <v>2.430930666666667</v>
       </c>
       <c r="N16">
-        <v>5.720429</v>
+        <v>7.292792</v>
       </c>
       <c r="O16">
-        <v>0.241823716291372</v>
+        <v>0.2398661473858844</v>
       </c>
       <c r="P16">
-        <v>0.241823716291372</v>
+        <v>0.2398661473858844</v>
       </c>
       <c r="Q16">
-        <v>2.809078313962555</v>
+        <v>19.85356552391911</v>
       </c>
       <c r="R16">
-        <v>25.281704825663</v>
+        <v>178.682089715272</v>
       </c>
       <c r="S16">
-        <v>0.006201652402928002</v>
+        <v>0.02717869289104983</v>
       </c>
       <c r="T16">
-        <v>0.006201652402928005</v>
+        <v>0.02717869289104983</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H17">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I17">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J17">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7750113333333332</v>
+        <v>1.070709333333333</v>
       </c>
       <c r="N17">
-        <v>2.325034</v>
+        <v>3.212128</v>
       </c>
       <c r="O17">
-        <v>0.09828779666416516</v>
+        <v>0.1056496288760636</v>
       </c>
       <c r="P17">
-        <v>0.09828779666416518</v>
+        <v>0.1056496288760636</v>
       </c>
       <c r="Q17">
-        <v>3.530261357905777</v>
+        <v>6.246788426321778</v>
       </c>
       <c r="R17">
-        <v>31.77235222115199</v>
+        <v>56.221095836896</v>
       </c>
       <c r="S17">
-        <v>0.007793821099397114</v>
+        <v>0.008551589586757991</v>
       </c>
       <c r="T17">
-        <v>0.007793821099397117</v>
+        <v>0.008551589586757989</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H18">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I18">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J18">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>4.63366</v>
       </c>
       <c r="O18">
-        <v>0.1958819664103302</v>
+        <v>0.152405028485123</v>
       </c>
       <c r="P18">
-        <v>0.1958819664103302</v>
+        <v>0.152405028485123</v>
       </c>
       <c r="Q18">
-        <v>7.035609304497777</v>
+        <v>9.01131388895778</v>
       </c>
       <c r="R18">
-        <v>63.32048374048</v>
+        <v>81.10182500062001</v>
       </c>
       <c r="S18">
-        <v>0.01553264041533691</v>
+        <v>0.01233610821380002</v>
       </c>
       <c r="T18">
-        <v>0.01553264041533691</v>
+        <v>0.01233610821380002</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H19">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I19">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J19">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.033537666666667</v>
+        <v>3.115442666666667</v>
       </c>
       <c r="N19">
-        <v>3.100613</v>
+        <v>9.346328</v>
       </c>
       <c r="O19">
-        <v>0.1310743929242614</v>
+        <v>0.3074086974597408</v>
       </c>
       <c r="P19">
-        <v>0.1310743929242614</v>
+        <v>0.3074086974597408</v>
       </c>
       <c r="Q19">
-        <v>4.707877071784889</v>
+        <v>18.17627864736622</v>
       </c>
       <c r="R19">
-        <v>42.370893646064</v>
+        <v>163.586507826296</v>
       </c>
       <c r="S19">
-        <v>0.01039366435951689</v>
+        <v>0.02488255798001345</v>
       </c>
       <c r="T19">
-        <v>0.01039366435951689</v>
+        <v>0.02488255798001345</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H20">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I20">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J20">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.625210666666667</v>
+        <v>1.972894</v>
       </c>
       <c r="N20">
-        <v>7.875632</v>
+        <v>5.918682</v>
       </c>
       <c r="O20">
-        <v>0.3329321277098712</v>
+        <v>0.1946704977931882</v>
       </c>
       <c r="P20">
-        <v>0.3329321277098712</v>
+        <v>0.1946704977931882</v>
       </c>
       <c r="Q20">
-        <v>11.95812160969956</v>
+        <v>11.51036142291933</v>
       </c>
       <c r="R20">
-        <v>107.623094487296</v>
+        <v>103.593252806274</v>
       </c>
       <c r="S20">
-        <v>0.02640015881603758</v>
+        <v>0.01575719876621727</v>
       </c>
       <c r="T20">
-        <v>0.02640015881603758</v>
+        <v>0.01575719876621727</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H21">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I21">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J21">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.906809666666667</v>
+        <v>2.430930666666667</v>
       </c>
       <c r="N21">
-        <v>5.720429</v>
+        <v>7.292792</v>
       </c>
       <c r="O21">
-        <v>0.241823716291372</v>
+        <v>0.2398661473858844</v>
       </c>
       <c r="P21">
-        <v>0.241823716291372</v>
+        <v>0.2398661473858844</v>
       </c>
       <c r="Q21">
-        <v>8.685726509523557</v>
+        <v>14.18266291417156</v>
       </c>
       <c r="R21">
-        <v>78.171538585712</v>
+        <v>127.643966227544</v>
       </c>
       <c r="S21">
-        <v>0.01917563366290693</v>
+        <v>0.01941546667056605</v>
       </c>
       <c r="T21">
-        <v>0.01917563366290694</v>
+        <v>0.01941546667056605</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H22">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I22">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J22">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.7750113333333332</v>
+        <v>1.070709333333333</v>
       </c>
       <c r="N22">
-        <v>2.325034</v>
+        <v>3.212128</v>
       </c>
       <c r="O22">
-        <v>0.09828779666416516</v>
+        <v>0.1056496288760636</v>
       </c>
       <c r="P22">
-        <v>0.09828779666416518</v>
+        <v>0.1056496288760636</v>
       </c>
       <c r="Q22">
-        <v>2.077117432939777</v>
+        <v>5.142897810748445</v>
       </c>
       <c r="R22">
-        <v>18.69405689645799</v>
+        <v>46.286080296736</v>
       </c>
       <c r="S22">
-        <v>0.004585689282896341</v>
+        <v>0.007040409945507479</v>
       </c>
       <c r="T22">
-        <v>0.004585689282896343</v>
+        <v>0.00704040994550748</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H23">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I23">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J23">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>4.63366</v>
       </c>
       <c r="O23">
-        <v>0.1958819664103302</v>
+        <v>0.152405028485123</v>
       </c>
       <c r="P23">
-        <v>0.1958819664103302</v>
+        <v>0.152405028485123</v>
       </c>
       <c r="Q23">
-        <v>4.139576438157778</v>
+        <v>7.418894847824444</v>
       </c>
       <c r="R23">
-        <v>37.25618794342</v>
+        <v>66.77005363042001</v>
       </c>
       <c r="S23">
-        <v>0.009139016892908003</v>
+        <v>0.01015615378593262</v>
       </c>
       <c r="T23">
-        <v>0.009139016892908004</v>
+        <v>0.01015615378593263</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H24">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I24">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J24">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.033537666666667</v>
+        <v>3.115442666666667</v>
       </c>
       <c r="N24">
-        <v>3.100613</v>
+        <v>9.346328</v>
       </c>
       <c r="O24">
-        <v>0.1310743929242614</v>
+        <v>0.3074086974597408</v>
       </c>
       <c r="P24">
-        <v>0.1310743929242614</v>
+        <v>0.3074086974597408</v>
       </c>
       <c r="Q24">
-        <v>2.769997047397889</v>
+        <v>14.96428841245956</v>
       </c>
       <c r="R24">
-        <v>24.929973426581</v>
+        <v>134.678595712136</v>
       </c>
       <c r="S24">
-        <v>0.006115371992198427</v>
+        <v>0.02048547897380647</v>
       </c>
       <c r="T24">
-        <v>0.006115371992198428</v>
+        <v>0.02048547897380647</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H25">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I25">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J25">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.625210666666667</v>
+        <v>1.972894</v>
       </c>
       <c r="N25">
-        <v>7.875632</v>
+        <v>5.918682</v>
       </c>
       <c r="O25">
-        <v>0.3329321277098712</v>
+        <v>0.1946704977931882</v>
       </c>
       <c r="P25">
-        <v>0.3329321277098712</v>
+        <v>0.1946704977931882</v>
       </c>
       <c r="Q25">
-        <v>7.035859485331556</v>
+        <v>9.476327437859334</v>
       </c>
       <c r="R25">
-        <v>63.322735367984</v>
+        <v>85.286946940734</v>
       </c>
       <c r="S25">
-        <v>0.01553319274403535</v>
+        <v>0.01297269212718052</v>
       </c>
       <c r="T25">
-        <v>0.01553319274403535</v>
+        <v>0.01297269212718052</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H26">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I26">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J26">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.906809666666667</v>
+        <v>2.430930666666667</v>
       </c>
       <c r="N26">
-        <v>5.720429</v>
+        <v>7.292792</v>
       </c>
       <c r="O26">
-        <v>0.241823716291372</v>
+        <v>0.2398661473858844</v>
       </c>
       <c r="P26">
-        <v>0.241823716291372</v>
+        <v>0.2398661473858844</v>
       </c>
       <c r="Q26">
-        <v>5.110464104952555</v>
+        <v>11.67639770614489</v>
       </c>
       <c r="R26">
-        <v>45.994176944573</v>
+        <v>105.087579355304</v>
       </c>
       <c r="S26">
-        <v>0.01128246294844266</v>
+        <v>0.0159844954271179</v>
       </c>
       <c r="T26">
-        <v>0.01128246294844267</v>
+        <v>0.0159844954271179</v>
       </c>
     </row>
   </sheetData>
